--- a/data/trans_orig/P6501-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6501-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D91173D9-BFA2-445C-8983-1426AFF2D2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2738EC29-38AE-447E-9A30-C550DE8C5A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{297D184A-7378-4015-8E2B-1A70357495B7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4E07E6CF-CE22-43B1-BEBF-14B86168FB47}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="322">
   <si>
     <t>Población según la exposición a vibraciones provenientes de herramientas o máquinas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,02%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>59,8%</t>
   </si>
   <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
   </si>
   <si>
     <t>88,13%</t>
   </si>
   <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
   </si>
   <si>
     <t>71,24%</t>
   </si>
   <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,10 +104,10 @@
     <t>18,96%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
   <si>
     <t>7,77%</t>
@@ -116,16 +116,16 @@
     <t>3,81%</t>
   </si>
   <si>
-    <t>14,73%</t>
+    <t>14,68%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>15,43%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -167,7 +167,7 @@
     <t>2,9%</t>
   </si>
   <si>
-    <t>10,12%</t>
+    <t>10,04%</t>
   </si>
   <si>
     <t>0,96%</t>
@@ -176,16 +176,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,86%</t>
+    <t>5,25%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,802 +197,808 @@
     <t>53,2%</t>
   </si>
   <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
   </si>
   <si>
     <t>86,65%</t>
   </si>
   <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>64,11%</t>
   </si>
   <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
   </si>
   <si>
     <t>16,39%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
+    <t>8,0%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>5,36%</t>
+    <t>5,38%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
+    <t>3,26%</t>
+  </si>
+  <si>
     <t>Jaen</t>
   </si>
   <si>
     <t>49,9%</t>
   </si>
   <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
   </si>
   <si>
     <t>84,63%</t>
   </si>
   <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
   </si>
   <si>
     <t>61,94%</t>
   </si>
   <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
   </si>
   <si>
     <t>24,53%</t>
   </si>
   <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>20,12%</t>
   </si>
   <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>1,45%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>11,55%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1407,7 +1413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9CEC90-9A4C-4426-9664-D477372AD8A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C170F6AD-0F51-4B3F-849B-C5DD287E29E3}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2114,10 +2120,10 @@
         <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>29</v>
@@ -2126,13 +2132,13 @@
         <v>30399</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,10 +2153,10 @@
         <v>44697</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>107</v>
@@ -2485,13 +2491,13 @@
         <v>19981</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,7 +2553,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2559,13 +2565,13 @@
         <v>87421</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -2574,13 +2580,13 @@
         <v>49426</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>130</v>
@@ -2589,13 +2595,13 @@
         <v>136847</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,13 +2616,13 @@
         <v>16563</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2625,13 +2631,13 @@
         <v>1000</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2640,13 +2646,13 @@
         <v>17564</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,13 +2667,13 @@
         <v>7338</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2682,7 +2688,7 @@
         <v>116</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -2691,13 +2697,13 @@
         <v>7338</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,13 +2718,13 @@
         <v>1709</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2733,7 +2739,7 @@
         <v>116</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -2742,13 +2748,13 @@
         <v>1709</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,10 +2924,10 @@
         <v>34821</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>206</v>
@@ -3002,10 +3008,10 @@
         <v>217</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,7 +3067,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3073,13 +3079,13 @@
         <v>175094</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H34" s="7">
         <v>139</v>
@@ -3088,13 +3094,13 @@
         <v>150915</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M34" s="7">
         <v>303</v>
@@ -3103,13 +3109,13 @@
         <v>326009</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3130,13 @@
         <v>52803</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H35" s="7">
         <v>24</v>
@@ -3139,13 +3145,13 @@
         <v>24896</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M35" s="7">
         <v>76</v>
@@ -3154,13 +3160,13 @@
         <v>77700</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3181,13 @@
         <v>69162</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3190,13 +3196,13 @@
         <v>915</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="M36" s="7">
         <v>65</v>
@@ -3208,10 +3214,10 @@
         <v>242</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,13 +3232,13 @@
         <v>37868</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -3241,13 +3247,13 @@
         <v>2889</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M37" s="7">
         <v>39</v>
@@ -3256,13 +3262,13 @@
         <v>40757</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>251</v>
+        <v>85</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,7 +3324,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3330,13 +3336,13 @@
         <v>275783</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H39" s="7">
         <v>190</v>
@@ -3345,13 +3351,13 @@
         <v>198703</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M39" s="7">
         <v>452</v>
@@ -3360,13 +3366,13 @@
         <v>474486</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,13 +3387,13 @@
         <v>87775</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H40" s="7">
         <v>27</v>
@@ -3396,13 +3402,13 @@
         <v>29512</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="M40" s="7">
         <v>114</v>
@@ -3414,10 +3420,10 @@
         <v>268</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>62</v>
+        <v>269</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3438,13 @@
         <v>70632</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H41" s="7">
         <v>5</v>
@@ -3447,13 +3453,13 @@
         <v>4755</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M41" s="7">
         <v>75</v>
@@ -3462,10 +3468,10 @@
         <v>75387</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>277</v>
+        <v>156</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>278</v>
@@ -3644,7 +3650,7 @@
         <v>298</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>106</v>
+        <v>299</v>
       </c>
       <c r="H45" s="7">
         <v>100</v>
@@ -3656,10 +3662,10 @@
         <v>134</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>300</v>
+        <v>71</v>
       </c>
       <c r="M45" s="7">
         <v>437</v>
@@ -3668,13 +3674,13 @@
         <v>453159</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3695,13 @@
         <v>348366</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H46" s="7">
         <v>23</v>
@@ -3704,13 +3710,13 @@
         <v>22928</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>212</v>
+        <v>309</v>
       </c>
       <c r="M46" s="7">
         <v>358</v>
@@ -3719,13 +3725,13 @@
         <v>371294</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3746,13 @@
         <v>144858</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H47" s="7">
         <v>17</v>
@@ -3755,13 +3761,13 @@
         <v>16753</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>313</v>
+        <v>74</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M47" s="7">
         <v>158</v>
@@ -3770,13 +3776,13 @@
         <v>161611</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,7 +3838,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6501-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6501-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2738EC29-38AE-447E-9A30-C550DE8C5A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{217DD01E-E4B2-4FFE-A651-5A1177604470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4E07E6CF-CE22-43B1-BEBF-14B86168FB47}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{05014144-D763-41A4-9FFA-6638238CBC98}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="321">
   <si>
     <t>Población según la exposición a vibraciones provenientes de herramientas o máquinas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,02%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>59,8%</t>
   </si>
   <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
   </si>
   <si>
     <t>88,13%</t>
   </si>
   <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
   </si>
   <si>
     <t>71,24%</t>
   </si>
   <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>18,96%</t>
   </si>
   <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,871 +134,868 @@
     <t>15,43%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
     <t>0,87%</t>
   </si>
   <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
     <t>8,36%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1413,7 +1410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C170F6AD-0F51-4B3F-849B-C5DD287E29E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FBCDBD-22A3-4084-8EDA-9C773F96E422}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2156,10 +2153,10 @@
         <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2168,13 +2165,13 @@
         <v>978</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -2183,13 +2180,13 @@
         <v>45676</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,13 +2201,13 @@
         <v>11992</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2222,10 +2219,10 @@
         <v>45</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -2234,13 +2231,13 @@
         <v>11992</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,7 +2293,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2308,13 +2305,13 @@
         <v>108603</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>112</v>
@@ -2323,13 +2320,13 @@
         <v>111258</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>220</v>
@@ -2338,13 +2335,13 @@
         <v>219861</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2356,13 @@
         <v>47813</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -2374,13 +2371,13 @@
         <v>13721</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>59</v>
@@ -2389,13 +2386,13 @@
         <v>61533</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2407,13 @@
         <v>51867</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2425,13 +2422,13 @@
         <v>4928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>55</v>
@@ -2440,7 +2437,7 @@
         <v>56795</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>147</v>
@@ -2464,10 +2461,10 @@
         <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -2476,13 +2473,13 @@
         <v>4721</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -2491,7 +2488,7 @@
         <v>19981</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>155</v>
@@ -2685,7 +2682,7 @@
         <v>45</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>178</v>
@@ -2703,7 +2700,7 @@
         <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,13 +2715,13 @@
         <v>1709</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2736,7 +2733,7 @@
         <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>178</v>
@@ -2748,13 +2745,13 @@
         <v>1709</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,7 +2807,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2822,13 +2819,13 @@
         <v>77857</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H29" s="7">
         <v>67</v>
@@ -2837,13 +2834,13 @@
         <v>70086</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="M29" s="7">
         <v>143</v>
@@ -2852,13 +2849,13 @@
         <v>147944</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,13 +2870,13 @@
         <v>38266</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -2888,13 +2885,13 @@
         <v>9796</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>46</v>
@@ -2903,13 +2900,13 @@
         <v>48062</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2921,13 @@
         <v>34821</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -2939,13 +2936,13 @@
         <v>1900</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M31" s="7">
         <v>35</v>
@@ -2954,13 +2951,13 @@
         <v>36721</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2972,13 @@
         <v>5073</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2990,13 +2987,13 @@
         <v>1035</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -3005,10 +3002,10 @@
         <v>6108</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>218</v>
@@ -3094,13 +3091,13 @@
         <v>150915</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M34" s="7">
         <v>303</v>
@@ -3109,13 +3106,13 @@
         <v>326009</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3127,13 @@
         <v>52803</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H35" s="7">
         <v>24</v>
@@ -3145,13 +3142,13 @@
         <v>24896</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M35" s="7">
         <v>76</v>
@@ -3160,13 +3157,13 @@
         <v>77700</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,13 +3178,13 @@
         <v>69162</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3196,13 +3193,13 @@
         <v>915</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>241</v>
+        <v>101</v>
       </c>
       <c r="M36" s="7">
         <v>65</v>
@@ -3265,7 +3262,7 @@
         <v>251</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>252</v>
@@ -3390,10 +3387,10 @@
         <v>263</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H40" s="7">
         <v>27</v>
@@ -3402,13 +3399,13 @@
         <v>29512</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M40" s="7">
         <v>114</v>
@@ -3417,13 +3414,13 @@
         <v>117286</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3435,13 @@
         <v>70632</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H41" s="7">
         <v>5</v>
@@ -3453,13 +3450,13 @@
         <v>4755</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M41" s="7">
         <v>75</v>
@@ -3468,13 +3465,13 @@
         <v>75387</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3486,13 @@
         <v>32093</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H42" s="7">
         <v>5</v>
@@ -3504,13 +3501,13 @@
         <v>5072</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M42" s="7">
         <v>39</v>
@@ -3519,13 +3516,13 @@
         <v>37166</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3590,13 @@
         <v>1062119</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H44" s="7">
         <v>838</v>
@@ -3608,13 +3605,13 @@
         <v>878236</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M44" s="7">
         <v>1848</v>
@@ -3623,13 +3620,13 @@
         <v>1940355</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3641,13 @@
         <v>349046</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H45" s="7">
         <v>100</v>
@@ -3659,13 +3656,13 @@
         <v>104112</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>71</v>
+        <v>299</v>
       </c>
       <c r="M45" s="7">
         <v>437</v>
@@ -3674,13 +3671,13 @@
         <v>453159</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="Q45" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,13 +3692,13 @@
         <v>348366</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H46" s="7">
         <v>23</v>
@@ -3710,13 +3707,13 @@
         <v>22928</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M46" s="7">
         <v>358</v>
@@ -3725,13 +3722,13 @@
         <v>371294</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3743,13 @@
         <v>144858</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H47" s="7">
         <v>17</v>
@@ -3761,7 +3758,7 @@
         <v>16753</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>74</v>
+        <v>315</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>316</v>
@@ -3776,13 +3773,13 @@
         <v>161611</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,7 +3835,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6501-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6501-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{217DD01E-E4B2-4FFE-A651-5A1177604470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBB6639D-BB1E-4597-B987-06AF5DA1D51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{05014144-D763-41A4-9FFA-6638238CBC98}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1221B1D6-A47A-403B-9E58-3DD532015E33}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="320">
   <si>
     <t>Población según la exposición a vibraciones provenientes de herramientas o máquinas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,02%)</t>
   </si>
@@ -74,19 +74,19 @@
     <t>59,8%</t>
   </si>
   <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
   </si>
   <si>
     <t>88,13%</t>
   </si>
   <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>71,24%</t>
@@ -95,7 +95,7 @@
     <t>65,54%</t>
   </si>
   <si>
-    <t>76,6%</t>
+    <t>76,45%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>18,96%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>15,43%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,10 +164,10 @@
     <t>5,81%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
   </si>
   <si>
     <t>0,96%</t>
@@ -176,16 +176,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,79%</t>
+    <t>4,86%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,805 +197,802 @@
     <t>53,2%</t>
   </si>
   <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
   </si>
   <si>
     <t>86,65%</t>
   </si>
   <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
   </si>
   <si>
     <t>64,11%</t>
   </si>
   <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
   </si>
   <si>
     <t>16,39%</t>
   </si>
   <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
     <t>11,98%</t>
   </si>
   <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
   </si>
   <si>
     <t>10,7%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1410,7 +1407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FBCDBD-22A3-4084-8EDA-9C773F96E422}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60BA70D-A332-49FB-89EB-1211D6CC39D5}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2117,10 +2114,10 @@
         <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>29</v>
@@ -2129,13 +2126,13 @@
         <v>30399</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,13 +2147,13 @@
         <v>44697</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2165,13 +2162,13 @@
         <v>978</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -2180,13 +2177,13 @@
         <v>45676</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,13 +2198,13 @@
         <v>11992</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2219,10 +2216,10 @@
         <v>45</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -2231,13 +2228,13 @@
         <v>11992</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,7 +2290,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2305,13 +2302,13 @@
         <v>108603</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>112</v>
@@ -2320,13 +2317,13 @@
         <v>111258</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>220</v>
@@ -2335,13 +2332,13 @@
         <v>219861</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,13 +2353,13 @@
         <v>47813</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -2371,13 +2368,13 @@
         <v>13721</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>59</v>
@@ -2386,13 +2383,13 @@
         <v>61533</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,13 +2404,13 @@
         <v>51867</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2422,13 +2419,13 @@
         <v>4928</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>55</v>
@@ -2437,7 +2434,7 @@
         <v>56795</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>147</v>
@@ -2461,10 +2458,10 @@
         <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -2473,13 +2470,13 @@
         <v>4721</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -2488,13 +2485,13 @@
         <v>19981</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,7 +2547,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2562,13 +2559,13 @@
         <v>87421</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -2577,13 +2574,13 @@
         <v>49426</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>130</v>
@@ -2592,13 +2589,13 @@
         <v>136847</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,13 +2610,13 @@
         <v>16563</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2628,13 +2625,13 @@
         <v>1000</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2643,13 +2640,13 @@
         <v>17564</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2661,13 @@
         <v>7338</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2682,10 +2679,10 @@
         <v>45</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -2694,13 +2691,13 @@
         <v>7338</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2712,13 @@
         <v>1709</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2733,10 +2730,10 @@
         <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -2745,13 +2742,13 @@
         <v>1709</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,7 +2804,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2819,13 +2816,13 @@
         <v>77857</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7">
         <v>67</v>
@@ -2834,13 +2831,13 @@
         <v>70086</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>143</v>
@@ -2849,13 +2846,13 @@
         <v>147944</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2867,13 @@
         <v>38266</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -2885,13 +2882,13 @@
         <v>9796</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>46</v>
@@ -2900,13 +2897,13 @@
         <v>48062</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,13 +2918,13 @@
         <v>34821</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -2936,13 +2933,13 @@
         <v>1900</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M31" s="7">
         <v>35</v>
@@ -2951,13 +2948,13 @@
         <v>36721</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,13 +2969,13 @@
         <v>5073</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2987,13 +2984,13 @@
         <v>1035</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -3002,13 +2999,13 @@
         <v>6108</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,7 +3061,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3076,13 +3073,13 @@
         <v>175094</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H34" s="7">
         <v>139</v>
@@ -3091,13 +3088,13 @@
         <v>150915</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M34" s="7">
         <v>303</v>
@@ -3106,13 +3103,13 @@
         <v>326009</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,13 +3124,13 @@
         <v>52803</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H35" s="7">
         <v>24</v>
@@ -3142,13 +3139,13 @@
         <v>24896</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M35" s="7">
         <v>76</v>
@@ -3157,13 +3154,13 @@
         <v>77700</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>237</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,7 +3196,7 @@
         <v>45</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="M36" s="7">
         <v>65</v>
@@ -3211,10 +3208,10 @@
         <v>242</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,13 +3226,13 @@
         <v>37868</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -3244,13 +3241,13 @@
         <v>2889</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M37" s="7">
         <v>39</v>
@@ -3259,13 +3256,13 @@
         <v>40757</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P37" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,7 +3318,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3333,13 +3330,13 @@
         <v>275783</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H39" s="7">
         <v>190</v>
@@ -3348,13 +3345,13 @@
         <v>198703</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M39" s="7">
         <v>452</v>
@@ -3363,13 +3360,13 @@
         <v>474486</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,10 +3381,10 @@
         <v>87775</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>264</v>
@@ -3414,10 +3411,10 @@
         <v>117286</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>268</v>
+        <v>62</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>269</v>
@@ -3465,13 +3462,13 @@
         <v>75387</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,13 +3483,13 @@
         <v>32093</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>182</v>
+        <v>280</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H42" s="7">
         <v>5</v>
@@ -3501,13 +3498,13 @@
         <v>5072</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M42" s="7">
         <v>39</v>
@@ -3516,13 +3513,13 @@
         <v>37166</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,13 +3587,13 @@
         <v>1062119</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H44" s="7">
         <v>838</v>
@@ -3605,13 +3602,13 @@
         <v>878236</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M44" s="7">
         <v>1848</v>
@@ -3620,13 +3617,13 @@
         <v>1940355</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3638,13 @@
         <v>349046</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>297</v>
+        <v>106</v>
       </c>
       <c r="H45" s="7">
         <v>100</v>
@@ -3656,13 +3653,13 @@
         <v>104112</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M45" s="7">
         <v>437</v>
@@ -3671,7 +3668,7 @@
         <v>453159</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>300</v>
+        <v>203</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>301</v>
@@ -3713,7 +3710,7 @@
         <v>307</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>308</v>
+        <v>212</v>
       </c>
       <c r="M46" s="7">
         <v>358</v>
@@ -3722,13 +3719,13 @@
         <v>371294</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="P46" s="7" t="s">
-        <v>310</v>
-      </c>
       <c r="Q46" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3740,13 @@
         <v>144858</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H47" s="7">
         <v>17</v>
@@ -3758,13 +3755,13 @@
         <v>16753</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M47" s="7">
         <v>158</v>
@@ -3773,13 +3770,13 @@
         <v>161611</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>218</v>
+        <v>316</v>
       </c>
       <c r="P47" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,7 +3832,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6501-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6501-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBB6639D-BB1E-4597-B987-06AF5DA1D51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2EE4AC3-3161-499D-8EB5-68F8BB644AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1221B1D6-A47A-403B-9E58-3DD532015E33}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B3960ADA-0CAA-4D03-8481-C174B0597FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1407,7 +1407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60BA70D-A332-49FB-89EB-1211D6CC39D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BFB823-D0A3-44A7-82F5-BDF84688C7DA}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
